--- a/xlsx/阿肯色州_intext.xlsx
+++ b/xlsx/阿肯色州_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="530">
   <si>
     <t>阿肯色州</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_阿肯色州</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_阿肯色州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E%E5%B7%9E%E6%97%97</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%96%A9%C2%B7%E8%B3%80%E5%8B%A4%E6%A3%AE</t>
   </si>
   <si>
-    <t>阿薩·賀勤森</t>
+    <t>阿萨·贺勤森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Arkansas</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%A7%86%C2%B7%E5%8D%A1%E9%A0%93</t>
   </si>
   <si>
-    <t>湯姆·卡頓</t>
+    <t>汤姆·卡顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -197,9 +197,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E8%81%AF%E7%9B%9F%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅聯盟國</t>
+    <t>美利坚联盟国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%89%E8%8A%B1</t>
@@ -329,7 +326,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%AC%A1%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>二次大戰</t>
+    <t>二次大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E4%B8%BB%E5%85%9A</t>
@@ -341,13 +338,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%B0%94%C2%B7%E5%85%8B%E6%9E%97%E9%A1%BF</t>
@@ -365,13 +362,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%8B%89%E8%95%8A%C2%B7%E7%BE%85%E5%BE%97%E6%BC%A2%C2%B7%E6%9F%AF%E6%9E%97%E9%A0%93</t>
   </si>
   <si>
-    <t>希拉蕊·羅得漢·柯林頓</t>
+    <t>希拉蕊·罗得汉·柯林顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>女性主義</t>
+    <t>女性主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%8E%9F</t>
@@ -383,7 +380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>山脈</t>
+    <t>山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%B5%81</t>
@@ -467,19 +464,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99%E5%BE%92</t>
@@ -491,7 +488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>羅馬天主教</t>
+    <t>罗马天主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%A4%A7%E5%AD%A6</t>
@@ -545,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%98%BF%E8%82%AF%E8%89%B2%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>中阿肯色大學</t>
+    <t>中阿肯色大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/University_of_Central_Arkansas</t>
@@ -557,13 +554,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E7%A7%91%E6%8A%80%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>阿肯色科技大學</t>
+    <t>阿肯色科技大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>阿肯色理工大學</t>
+    <t>阿肯色理工大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hendrix_College</t>
@@ -611,19 +608,19 @@
     <t>https://zh.wikipedia.org/wiki/30%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>30號州際公路</t>
+    <t>30号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/40%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>40號州際公路</t>
+    <t>40号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/55%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>55號州際公路</t>
+    <t>55号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NCAA</t>
@@ -635,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>小聯盟</t>
+    <t>小联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E6%97%85%E8%A1%8C%E8%80%85</t>
@@ -647,19 +644,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%AE%89%E9%82%A3%E7%BD%95%E5%A4%A9%E4%BD%BF</t>
   </si>
   <si>
-    <t>洛杉磯安那罕天使</t>
+    <t>洛杉矶安那罕天使</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF%C2%B7%E9%BA%A5%E5%85%8B%E9%98%BF%E7%91%9F</t>
   </si>
   <si>
-    <t>道格拉斯·麥克阿瑟</t>
+    <t>道格拉斯·麦克阿瑟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%C2%B7%E8%89%BE%E5%80%AB</t>
   </si>
   <si>
-    <t>克里斯·艾倫</t>
+    <t>克里斯·艾伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%BA%E5%B0%BC%C2%B7%E5%8D%A1%E4%BB%80</t>
@@ -683,9 +680,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%8E%BF_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
   </si>
   <si>
@@ -701,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%85%8B%E6%96%AF%E7%89%B9%E7%B8%A3_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
   </si>
   <si>
-    <t>巴克斯特縣 (阿肯色州)</t>
+    <t>巴克斯特县 (阿肯色州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E9%A1%BF%E5%8E%BF_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
@@ -713,13 +707,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%81%A9%E7%B8%A3_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布恩縣 (阿肯色州)</t>
+    <t>布恩县 (阿肯色州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E5%BE%B7%E5%88%A9%E7%B8%A3_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布拉德利縣 (阿肯色州)</t>
+    <t>布拉德利县 (阿肯色州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E6%B4%AA%E5%8E%BF_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
@@ -737,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E7%A7%91%E7%89%B9%E7%B8%A3_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
   </si>
   <si>
-    <t>奇科特縣 (阿肯色州)</t>
+    <t>奇科特县 (阿肯色州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%E5%8E%BF_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
@@ -773,19 +767,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E9%9F%8B%E7%B8%A3_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康韋縣 (阿肯色州)</t>
+    <t>康韦县 (阿肯色州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%9B%B7%E6%A0%BC%E9%BB%91%E5%BE%B7%E7%B8%A3_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克雷格黑德縣 (阿肯色州)</t>
+    <t>克雷格黑德县 (阿肯色州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8B%9E%E7%A6%8F%E5%BE%B7%E7%B8%A3_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克勞福德縣 (阿肯色州)</t>
+    <t>克劳福德县 (阿肯色州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%BB%95%E7%99%BB%E5%8E%BF_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
@@ -797,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E6%96%AF%E7%B8%A3_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克羅斯縣 (阿肯色州)</t>
+    <t>克罗斯县 (阿肯色州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E6%8B%89%E6%96%AF%E5%8E%BF_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
@@ -815,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E9%AD%AF%E7%B8%A3_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
   </si>
   <si>
-    <t>德魯縣 (阿肯色州)</t>
+    <t>德鲁县 (阿肯色州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E7%BA%B3%E5%8E%BF_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
@@ -863,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E6%B3%89%E7%B8%A3_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
   </si>
   <si>
-    <t>溫泉縣 (阿肯色州)</t>
+    <t>温泉县 (阿肯色州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%8D%8E%E5%BE%B7%E5%8E%BF_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
@@ -875,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E7%B8%A3_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
   </si>
   <si>
-    <t>獨立縣 (阿肯色州)</t>
+    <t>独立县 (阿肯色州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%B3%BD%E5%BE%B7%E5%8E%BF_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
@@ -911,7 +905,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%E7%B8%A3_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
   </si>
   <si>
-    <t>勞倫斯縣 (阿肯色州)</t>
+    <t>劳伦斯县 (阿肯色州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%8E%BF_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
@@ -983,13 +977,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E7%B8%A3_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
   </si>
   <si>
-    <t>內華達縣 (阿肯色州)</t>
+    <t>内华达县 (阿肯色州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E9%A0%93%E7%B8%A3_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
   </si>
   <si>
-    <t>牛頓縣 (阿肯色州)</t>
+    <t>牛顿县 (阿肯色州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B8%8C%E6%89%98%E5%8E%BF_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
@@ -1001,7 +995,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E9%87%8C%E7%B8%A3_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
   </si>
   <si>
-    <t>佩里縣 (阿肯色州)</t>
+    <t>佩里县 (阿肯色州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%88%A9%E6%99%AE%E6%96%AF%E5%8E%BF_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
@@ -1013,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BE%E5%85%8B%E7%B8%A3_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
   </si>
   <si>
-    <t>派克縣 (阿肯色州)</t>
+    <t>派克县 (阿肯色州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%9B%A0%E5%A1%9E%E7%89%B9%E5%8E%BF_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
@@ -1037,7 +1031,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%9B%B7%E9%87%8C%E7%B8%A3_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
   </si>
   <si>
-    <t>普雷里縣 (阿肯色州)</t>
+    <t>普雷里县 (阿肯色州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%80%E6%8B%89%E6%96%AF%E5%87%AF%E5%8E%BF_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
@@ -1061,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%A7%91%E7%89%B9%E7%B8%A3_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
   </si>
   <si>
-    <t>斯科特縣 (阿肯色州)</t>
+    <t>斯科特县 (阿肯色州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9F%E8%A5%BF%E5%8E%BF_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
@@ -1079,7 +1073,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B6%AD%E7%88%BE%E7%B8%A3_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
   </si>
   <si>
-    <t>塞維爾縣 (阿肯色州)</t>
+    <t>塞维尔县 (阿肯色州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%99%AE%E5%8E%BF_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
@@ -1121,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E7%89%B9%E7%B8%A3_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
   </si>
   <si>
-    <t>懷特縣 (阿肯色州)</t>
+    <t>怀特县 (阿肯色州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E5%BE%B7%E6%8B%89%E5%A4%AB%E5%8E%BF_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
@@ -1175,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
@@ -1193,7 +1187,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -1205,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -1229,7 +1223,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -1265,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -1289,7 +1283,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -1301,15 +1295,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
   </si>
   <si>
@@ -1319,7 +1310,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
@@ -1367,7 +1358,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -1385,7 +1376,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -1427,7 +1418,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -1445,7 +1436,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -1457,19 +1448,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -1487,7 +1478,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -1499,7 +1490,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -1511,7 +1502,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -1523,25 +1514,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -1577,7 +1568,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1595,7 +1586,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1607,7 +1598,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2825,7 +2816,7 @@
         <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
         <v>9</v>
@@ -2851,10 +2842,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>5</v>
@@ -2880,10 +2871,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>4</v>
@@ -2909,10 +2900,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>4</v>
@@ -2938,10 +2929,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2967,10 +2958,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2996,10 +2987,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3025,10 +3016,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3054,10 +3045,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3083,10 +3074,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3112,10 +3103,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3141,10 +3132,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3170,10 +3161,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3199,10 +3190,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3228,10 +3219,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3257,10 +3248,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -3286,10 +3277,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3315,10 +3306,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3344,10 +3335,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3373,10 +3364,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3402,10 +3393,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3431,10 +3422,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>5</v>
@@ -3460,10 +3451,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3489,10 +3480,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3518,10 +3509,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>7</v>
@@ -3576,10 +3567,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -3605,10 +3596,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -3634,10 +3625,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3663,10 +3654,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3692,10 +3683,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3721,10 +3712,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3750,10 +3741,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3779,10 +3770,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>3</v>
@@ -3808,10 +3799,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3837,10 +3828,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3866,10 +3857,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3895,10 +3886,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3924,10 +3915,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3953,10 +3944,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3982,10 +3973,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -4011,10 +4002,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4040,10 +4031,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4069,10 +4060,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4098,10 +4089,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4127,10 +4118,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4156,10 +4147,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4185,10 +4176,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4214,10 +4205,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4243,10 +4234,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4272,10 +4263,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4301,10 +4292,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>5</v>
@@ -4330,10 +4321,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>9</v>
@@ -4359,10 +4350,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4388,10 +4379,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4417,10 +4408,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4446,10 +4437,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4475,10 +4466,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4504,10 +4495,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4533,10 +4524,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4562,10 +4553,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4591,10 +4582,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4620,10 +4611,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4649,10 +4640,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4678,10 +4669,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4707,10 +4698,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4736,10 +4727,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4765,10 +4756,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4794,10 +4785,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4823,10 +4814,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4852,10 +4843,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4881,10 +4872,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4910,10 +4901,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4939,10 +4930,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4968,10 +4959,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4997,10 +4988,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5026,10 +5017,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5055,10 +5046,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>110</v>
+      </c>
+      <c r="F107" t="s">
         <v>111</v>
-      </c>
-      <c r="F107" t="s">
-        <v>112</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5084,10 +5075,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
         <v>211</v>
-      </c>
-      <c r="F108" t="s">
-        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5113,10 +5104,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
         <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5142,10 +5133,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5171,10 +5162,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
-      </c>
-      <c r="F111" t="s">
-        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5200,10 +5191,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" t="s">
         <v>219</v>
-      </c>
-      <c r="F112" t="s">
-        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>4</v>
@@ -5229,10 +5220,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>63</v>
       </c>
       <c r="G113" t="n">
         <v>77</v>
@@ -5258,10 +5249,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>55</v>
@@ -5287,10 +5278,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5316,10 +5307,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5345,10 +5336,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -5374,10 +5365,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5403,10 +5394,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5432,10 +5423,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5461,10 +5452,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5490,10 +5481,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5519,10 +5510,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5548,10 +5539,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5577,10 +5568,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5606,10 +5597,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5635,10 +5626,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5664,10 +5655,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5693,10 +5684,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5722,10 +5713,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5751,10 +5742,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5780,10 +5771,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5809,10 +5800,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5838,10 +5829,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5867,10 +5858,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5896,10 +5887,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5925,10 +5916,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5954,10 +5945,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5983,10 +5974,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6012,10 +6003,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6041,10 +6032,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6070,10 +6061,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6099,10 +6090,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -6128,10 +6119,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6157,10 +6148,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6186,10 +6177,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6215,10 +6206,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6244,10 +6235,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6273,10 +6264,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6302,10 +6293,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6331,10 +6322,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6360,10 +6351,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>13</v>
@@ -6389,10 +6380,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6418,10 +6409,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6447,10 +6438,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6476,10 +6467,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6505,10 +6496,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6534,10 +6525,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6563,10 +6554,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6592,10 +6583,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>7</v>
@@ -6621,10 +6612,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6650,10 +6641,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6679,10 +6670,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6708,10 +6699,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6737,10 +6728,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -6766,10 +6757,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6795,10 +6786,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6824,10 +6815,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6853,10 +6844,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6882,10 +6873,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6911,10 +6902,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6940,10 +6931,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6969,10 +6960,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6998,10 +6989,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7027,10 +7018,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7056,10 +7047,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7085,10 +7076,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7114,10 +7105,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7143,10 +7134,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7172,10 +7163,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7201,10 +7192,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7230,10 +7221,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7259,10 +7250,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7288,10 +7279,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -7317,10 +7308,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G185" t="n">
         <v>3</v>
@@ -7346,10 +7337,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7375,10 +7366,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7404,10 +7395,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F188" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7433,10 +7424,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7462,10 +7453,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F190" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7491,10 +7482,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7520,10 +7511,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7549,10 +7540,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F193" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7578,10 +7569,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F194" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7607,10 +7598,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F195" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7636,10 +7627,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F196" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7665,10 +7656,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F197" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7694,10 +7685,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F198" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7723,10 +7714,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F199" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7752,10 +7743,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F200" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7781,10 +7772,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F201" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7810,10 +7801,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F202" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7839,10 +7830,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F203" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -7868,10 +7859,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F204" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7897,10 +7888,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F205" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7926,10 +7917,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F206" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7955,10 +7946,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F207" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7984,10 +7975,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F208" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8013,10 +8004,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F209" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8042,10 +8033,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F210" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8071,10 +8062,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F211" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8100,10 +8091,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>70</v>
+      </c>
+      <c r="F212" t="s">
         <v>71</v>
-      </c>
-      <c r="F212" t="s">
-        <v>72</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8129,10 +8120,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F213" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8158,10 +8149,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F214" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8187,10 +8178,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F215" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8216,10 +8207,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F216" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8245,10 +8236,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F217" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8274,10 +8265,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F218" t="s">
-        <v>430</v>
+        <v>67</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8303,10 +8294,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F219" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8332,10 +8323,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F220" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8361,10 +8352,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F221" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8390,10 +8381,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F222" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8419,10 +8410,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F223" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8448,10 +8439,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F224" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8477,10 +8468,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F225" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8506,10 +8497,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F226" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8535,10 +8526,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F227" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8564,10 +8555,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F228" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8593,10 +8584,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F229" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8622,10 +8613,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F230" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8651,10 +8642,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F231" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8680,10 +8671,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F232" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8709,10 +8700,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F233" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8738,10 +8729,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>74</v>
+      </c>
+      <c r="F234" t="s">
         <v>75</v>
-      </c>
-      <c r="F234" t="s">
-        <v>76</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -8767,10 +8758,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F235" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8796,10 +8787,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F236" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8825,10 +8816,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F237" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8854,10 +8845,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F238" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -8883,10 +8874,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F239" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8912,10 +8903,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F240" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8941,10 +8932,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F241" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8970,10 +8961,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F242" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8999,10 +8990,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F243" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9028,10 +9019,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F244" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9057,10 +9048,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F245" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9086,10 +9077,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F246" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9115,10 +9106,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F247" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9144,10 +9135,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F248" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9173,10 +9164,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F249" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9202,10 +9193,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F250" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9231,10 +9222,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F251" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9260,10 +9251,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F252" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9289,10 +9280,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F253" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9318,10 +9309,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F254" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9347,10 +9338,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F255" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9376,10 +9367,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F256" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9405,10 +9396,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F257" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9434,10 +9425,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F258" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9463,10 +9454,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F259" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9492,10 +9483,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F260" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9521,10 +9512,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F261" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9550,10 +9541,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F262" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9579,10 +9570,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F263" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G263" t="n">
         <v>3</v>
@@ -9608,10 +9599,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F264" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G264" t="n">
         <v>3</v>
@@ -9637,10 +9628,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F265" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9666,10 +9657,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F266" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9695,10 +9686,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F267" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9724,10 +9715,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F268" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9753,10 +9744,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F269" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9782,10 +9773,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F270" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
